--- a/WebContent/jsp/cooperation/model/BasicInfoModel.xlsx
+++ b/WebContent/jsp/cooperation/model/BasicInfoModel.xlsx
@@ -16,117 +16,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>合作社名称</t>
   </si>
   <si>
+    <t>税务登记号</t>
+  </si>
+  <si>
+    <t>注册地址</t>
+  </si>
+  <si>
+    <t>通信地址</t>
+  </si>
+  <si>
+    <t>注册资本</t>
+  </si>
+  <si>
+    <t>实收资本</t>
+  </si>
+  <si>
+    <t>法定代表人</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>社员人数</t>
+  </si>
+  <si>
+    <t>经营范围</t>
+  </si>
+  <si>
+    <t>经营场地面积</t>
+  </si>
+  <si>
+    <t>带动农户(户)</t>
+  </si>
+  <si>
+    <t>连接基地</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-10-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2093212313423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23oo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非诚勿扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012年4-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-04-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>组织机构代码</t>
-  </si>
-  <si>
-    <t>税务登记号</t>
-  </si>
-  <si>
-    <t>注册地址</t>
-  </si>
-  <si>
-    <t>通信地址</t>
-  </si>
-  <si>
-    <t>注册时间</t>
-  </si>
-  <si>
-    <t>注册资本</t>
-  </si>
-  <si>
-    <t>实收资本</t>
-  </si>
-  <si>
-    <t>法定代表人</t>
-  </si>
-  <si>
-    <t>身份证号</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>社员人数</t>
-  </si>
-  <si>
-    <t>经营范围</t>
-  </si>
-  <si>
-    <t>经营场地面积</t>
-  </si>
-  <si>
-    <t>带动农户(户)</t>
-  </si>
-  <si>
-    <t>连接基地</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012-10-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2093212313423</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12912</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23oo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非诚勿扰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012年4-03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -523,153 +533,211 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>16</v>
+      <c r="N4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" prompt="组织机构编码 不能为空" sqref="B1:B1048576">
+      <formula1>LEN(B1)&gt;0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" prompt="合作社名称 不能为空" sqref="A1:A1048576">
+      <formula1>LEN(A1)&gt;0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="注册时间格式为 yyyy-MM-dd&#10;例: 2015-01-01" sqref="F1:F1048576">
+      <formula1>TEXT(F1,"")=""</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/WebContent/jsp/cooperation/model/BasicInfoModel.xlsx
+++ b/WebContent/jsp/cooperation/model/BasicInfoModel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>合作社名称</t>
   </si>
@@ -137,6 +137,22 @@
   </si>
   <si>
     <t>组织机构代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执照1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执照2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执照4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,225 +533,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16" width="13.75" style="2" customWidth="1"/>
+    <col min="1" max="17" width="13.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32.25" customHeight="1">
+    <row r="1" spans="1:17" ht="32.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="Q2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="Q3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:17">
+      <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" prompt="组织机构编码 不能为空" sqref="B1:B1048576">
+  <dataValidations count="4">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" prompt="组织机构编码 不能为空" sqref="C1:C1048576">
+      <formula1>LEN(C1)&gt;0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" prompt="合作社名称 不能为空" sqref="B1:B1048576">
       <formula1>LEN(B1)&gt;0</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" prompt="合作社名称 不能为空" sqref="A1:A1048576">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="注册时间格式为 yyyy-MM-dd&#10;例: 2015-01-01" sqref="G1:G1048576">
+      <formula1>TEXT(G1,"")=""</formula1>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" prompt="营业执照 不能为空" sqref="A1:A1048576">
       <formula1>LEN(A1)&gt;0</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="注册时间格式为 yyyy-MM-dd&#10;例: 2015-01-01" sqref="F1:F1048576">
-      <formula1>TEXT(F1,"")=""</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
